--- a/Documentos e Utilidades/ProgressoProjeto.xlsx
+++ b/Documentos e Utilidades/ProgressoProjeto.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -494,8 +494,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
